--- a/01_作品/01_個人制作/3Dアクション(C++   制作中)/01_実行ファイル/data/CSV/object.xlsx
+++ b/01_作品/01_個人制作/3Dアクション(C++   制作中)/01_実行ファイル/data/CSV/object.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\3DACTSTG\data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B908F0B-94A6-4CF3-A510-BF67A4CF91C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FA181-967C-42A3-8239-D8F37DEDED22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11052" windowHeight="7464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>個性「収納」</t>
   </si>
   <si>
-    <t>個性「束縛」</t>
-  </si>
-  <si>
     <t>#個性</t>
     <rPh sb="1" eb="3">
       <t>コセイ</t>
@@ -140,6 +137,13 @@
   </si>
   <si>
     <t>GOALLENGTH</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1395,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1406,7 +1410,7 @@
     <col min="8" max="16384" width="8.796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1418,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1432,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1487,115 +1491,130 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="37">
         <v>0</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34" t="str">
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>100</v>
+      </c>
+      <c r="F9" s="34" t="str">
         <f>INDEX($D$2:$D$6,B9 + 1)</f>
         <v>#プランター</v>
       </c>
-      <c r="E9" t="str">
+      <c r="G9" t="str">
         <f>INDEX($F$2:$F$6,C9 + 1)</f>
         <v>無個性</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="35">
         <v>1</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="35">
         <v>3</v>
       </c>
-      <c r="D10" s="34" t="str">
-        <f t="shared" ref="D10:D13" si="0">INDEX($D$2:$D$6,B10 + 1)</f>
+      <c r="D10" s="40">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34" t="str">
+        <f>INDEX($D$2:$D$6,B10 + 1)</f>
         <v># 段ボール</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" ref="E10:E13" si="1">INDEX($F$2:$F$6,C10 + 1)</f>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G13" si="0">INDEX($F$2:$F$6,C10 + 1)</f>
         <v>個性「収納」</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="35">
         <v>1</v>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="40">
+        <v>10</v>
+      </c>
+      <c r="F11" s="34" t="str">
+        <f>INDEX($D$2:$D$6,B11 + 1)</f>
+        <v># 木箱</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v># 木箱</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
         <v>個性「俊敏」</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="35">
         <v>3</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="35">
         <v>2</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="40">
+        <v>300</v>
+      </c>
+      <c r="F12" s="34" t="str">
+        <f>INDEX($D$2:$D$6,B12 + 1)</f>
+        <v># 机</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v># 机</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
         <v>個性「強靭」</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42">
         <v>4</v>
       </c>
-      <c r="C13" s="43">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34" t="str">
+      <c r="C13" s="42">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34" t="str">
+        <f>INDEX($D$2:$D$6,B13 + 1)</f>
+        <v># 宝石</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v># 宝石</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
         <v>無個性</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1625,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -4943,7 +4962,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B293" s="27">
         <v>0</v>
@@ -4957,7 +4976,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B294" s="27">
         <v>80</v>
